--- a/src/main/resources/userdata/suju.xlsx
+++ b/src/main/resources/userdata/suju.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>taoxu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,13 +262,62 @@
   <si>
     <t>121</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部发奖服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部登录服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发奖角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发奖说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps:如不需要指定角色填写无即为发放在线角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网</t>
+  </si>
+  <si>
+    <t>D2 - 国内 - 摩奇卡卡 - 新测试服务器</t>
+  </si>
+  <si>
+    <t>1 - 圣诞年华</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +340,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +362,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -337,11 +392,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +434,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,117 +755,169 @@
     <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="11" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="10.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.25" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"斗斗堂2 内网测试 GM2,D2 - 国内 - 摩奇卡卡 - 新测试服务器"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"5 - test server,6 - 蔡德亮,3 - zhangmengkai,1 - 圣诞年华"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"内网,外网"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -804,218 +943,218 @@
   <sheetData>
     <row r="3" spans="7:8" ht="18" x14ac:dyDescent="0.15">
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.15">

--- a/src/main/resources/userdata/suju.xlsx
+++ b/src/main/resources/userdata/suju.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/userdata/suju.xlsx
+++ b/src/main/resources/userdata/suju.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,29 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111112</t>
-  </si>
-  <si>
-    <t>111114</t>
-  </si>
-  <si>
-    <t>111115</t>
-  </si>
-  <si>
-    <t>111116</t>
-  </si>
-  <si>
-    <t>111117</t>
-  </si>
-  <si>
-    <t>121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内部发奖服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,13 +281,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外网</t>
-  </si>
-  <si>
-    <t>D2 - 国内 - 摩奇卡卡 - 新测试服务器</t>
-  </si>
-  <si>
-    <t>1 - 圣诞年华</t>
+    <t>800005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800006</t>
+  </si>
+  <si>
+    <t>800007</t>
+  </si>
+  <si>
+    <t>800008</t>
+  </si>
+  <si>
+    <t>800009</t>
+  </si>
+  <si>
+    <t>800010</t>
+  </si>
+  <si>
+    <t>800011</t>
+  </si>
+  <si>
+    <t>800012</t>
+  </si>
+  <si>
+    <t>800013</t>
+  </si>
+  <si>
+    <t>800014</t>
+  </si>
+  <si>
+    <t>800015</t>
+  </si>
+  <si>
+    <t>800016</t>
+  </si>
+  <si>
+    <t>800017</t>
+  </si>
+  <si>
+    <t>800018</t>
+  </si>
+  <si>
+    <t>800019</t>
+  </si>
+  <si>
+    <t>800020</t>
+  </si>
+  <si>
+    <t>800021</t>
+  </si>
+  <si>
+    <t>800022</t>
+  </si>
+  <si>
+    <t>800023</t>
+  </si>
+  <si>
+    <t>800024</t>
+  </si>
+  <si>
+    <t>800025</t>
+  </si>
+  <si>
+    <t>800026</t>
+  </si>
+  <si>
+    <t>800027</t>
+  </si>
+  <si>
+    <t>800028</t>
+  </si>
+  <si>
+    <t>800029</t>
+  </si>
+  <si>
+    <t>800030</t>
+  </si>
+  <si>
+    <t>800031</t>
+  </si>
+  <si>
+    <t>800032</t>
+  </si>
+  <si>
+    <t>800033</t>
+  </si>
+  <si>
+    <t>800034</t>
+  </si>
+  <si>
+    <t>800035</t>
+  </si>
+  <si>
+    <t>800036</t>
+  </si>
+  <si>
+    <t>800037</t>
+  </si>
+  <si>
+    <t>进阶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500045</t>
+  </si>
+  <si>
+    <t>500046</t>
+  </si>
+  <si>
+    <t>500048</t>
+  </si>
+  <si>
+    <t>500050</t>
+  </si>
+  <si>
+    <t>500051</t>
+  </si>
+  <si>
+    <t>500052</t>
+  </si>
+  <si>
+    <t>圣光之锤碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭筒碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙炮碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神斧碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林拳套碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子加农碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神镰刀碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网</t>
+  </si>
+  <si>
+    <t>斗斗堂2 内网测试 GM2</t>
+  </si>
+  <si>
+    <t>5 - test server</t>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -744,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -779,30 +914,30 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -811,95 +946,306 @@
         <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -925,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G3:H30"/>
+  <dimension ref="G3:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H20"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1151,14 +1497,235 @@
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G30" s="2"/>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G42" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G44" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G46" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G47" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G48" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G49" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G50" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G51" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G52" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G53" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G54" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G55" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G56" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G57" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G58" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G59" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G60" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G61" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G62" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G63" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G64" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G65" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G66" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G67" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G68" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G69" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/userdata/suju.xlsx
+++ b/src/main/resources/userdata/suju.xlsx
@@ -435,6 +435,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>内网</t>
   </si>
   <si>
@@ -442,10 +446,6 @@
   </si>
   <si>
     <t>5 - test server</t>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,7 +937,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -946,13 +946,13 @@
         <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -963,7 +963,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.15">
@@ -974,7 +974,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>63</v>
@@ -991,7 +991,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>66</v>
@@ -1008,7 +1008,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>67</v>
@@ -1023,7 +1023,7 @@
         <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1034,7 +1034,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1045,7 +1045,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -1157,7 +1157,7 @@
         <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1173,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1181,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1189,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1197,7 +1197,7 @@
         <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1205,7 +1205,7 @@
         <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1213,7 +1213,7 @@
         <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1221,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1229,7 +1229,7 @@
         <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1245,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
